--- a/biology/Botanique/Domaine_Les_Cailloux/Domaine_Les_Cailloux.xlsx
+++ b/biology/Botanique/Domaine_Les_Cailloux/Domaine_Les_Cailloux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine Les Cailloux est un domaine viticole situé à Châteauneuf-du-Pape, à environ 20 km au nord d’Avignon.
@@ -512,7 +524,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est exploité par la famille Brunel depuis le XVIIe siècle et se transmet de père en fils depuis ce temps là. Depuis 1971, c’est André Brunel (septième génération) qui préside aux destinées du Domaine.
 Le Domaine possède des terres en châteauneuf-du-pape ainsi qu'en côtes-du-rhône et en vaucluse. 
@@ -544,7 +558,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
